--- a/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10537</v>
+        <v>9422</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0032048437290599</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01447938321624904</v>
+        <v>0.01294747626006205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10788</v>
+        <v>9157</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.001654508911064079</v>
+        <v>0.00165450891106408</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00765300639599756</v>
+        <v>0.006496438483684276</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>6323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2773</v>
+        <v>2653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12535</v>
+        <v>12006</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009272977310983622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004067056841384244</v>
+        <v>0.003891404641785705</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0183826795790324</v>
+        <v>0.01760686284601573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -825,19 +825,19 @@
         <v>2170</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5662</v>
+        <v>5669</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002982053660828703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0009682906665024572</v>
+        <v>0.0009665902942323865</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.007780751485808944</v>
+        <v>0.007790542443299214</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -846,19 +846,19 @@
         <v>8493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4806</v>
+        <v>4561</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14739</v>
+        <v>15166</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.006025271613627124</v>
+        <v>0.006025271613627126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003409356328199489</v>
+        <v>0.003235858554305544</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01045655023468373</v>
+        <v>0.01075940831858802</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>34254</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21896</v>
+        <v>22889</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50976</v>
+        <v>51980</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0502342201398988</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0321117450965132</v>
+        <v>0.03356746717681176</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07475756271056573</v>
+        <v>0.07623046048878644</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -896,19 +896,19 @@
         <v>21040</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14648</v>
+        <v>14528</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29984</v>
+        <v>29895</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02891338201109895</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02012969659393737</v>
+        <v>0.01996489042149338</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04120409537554251</v>
+        <v>0.04108130741624241</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -917,19 +917,19 @@
         <v>55294</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41626</v>
+        <v>41575</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74002</v>
+        <v>73662</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03922728199948539</v>
+        <v>0.0392272819994854</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0295305078414155</v>
+        <v>0.0294948665495334</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05249935409962714</v>
+        <v>0.05225819854304749</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>139911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119500</v>
+        <v>117853</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163536</v>
+        <v>161411</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2051835230901181</v>
+        <v>0.205183523090118</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1752505457955571</v>
+        <v>0.1728349480683358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2398292741538954</v>
+        <v>0.2367141422863967</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>266</v>
@@ -967,19 +967,19 @@
         <v>138550</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121860</v>
+        <v>121311</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155048</v>
+        <v>155075</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1903942314624523</v>
+        <v>0.1903942314624522</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1674591853892359</v>
+        <v>0.1667042407320803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2130651349921638</v>
+        <v>0.2131021649879977</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -988,19 +988,19 @@
         <v>278461</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>252184</v>
+        <v>250739</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>306113</v>
+        <v>306322</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1975485128197495</v>
+        <v>0.1975485128197496</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1789069103172425</v>
+        <v>0.1778815379560309</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2171656536697953</v>
+        <v>0.2173138610770957</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>501395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>476606</v>
+        <v>477413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>524876</v>
+        <v>526078</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7353092794589995</v>
+        <v>0.7353092794589996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6989551221779942</v>
+        <v>0.700138454678032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7697450207545303</v>
+        <v>0.7715072817797438</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>925</v>
@@ -1038,19 +1038,19 @@
         <v>563609</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>543956</v>
+        <v>544219</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>581805</v>
+        <v>581961</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7745054891365601</v>
+        <v>0.77450548913656</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7474983602975174</v>
+        <v>0.7478593905840181</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7995105995725446</v>
+        <v>0.7997250057893914</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1451</v>
@@ -1059,19 +1059,19 @@
         <v>1065003</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1036097</v>
+        <v>1032999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1095510</v>
+        <v>1091732</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7555444246560736</v>
+        <v>0.755544424656074</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7350374628409051</v>
+        <v>0.7328397383364292</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7771864272625089</v>
+        <v>0.774506644332151</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>4917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1405</v>
+        <v>1424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12470</v>
+        <v>12414</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.004727395736356332</v>
+        <v>0.004727395736356333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001350481544659891</v>
+        <v>0.001368739235120657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01198947505256653</v>
+        <v>0.01193499061390689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1184,19 +1184,19 @@
         <v>3239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1086</v>
+        <v>1149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7147</v>
+        <v>7589</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003032274550180579</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001016912911001894</v>
+        <v>0.001075272107635922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00669082448754784</v>
+        <v>0.007104315056182518</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1205,19 +1205,19 @@
         <v>8156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3447</v>
+        <v>3868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16211</v>
+        <v>16025</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.003868535502785141</v>
+        <v>0.00386853550278514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001634818725531239</v>
+        <v>0.001834793937266041</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007689310335434555</v>
+        <v>0.007600897459721694</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>7478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3703</v>
+        <v>3510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13875</v>
+        <v>13578</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.007190146480657536</v>
+        <v>0.007190146480657537</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003560554803380491</v>
+        <v>0.003374362625550689</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01333978093671063</v>
+        <v>0.01305411403840872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1255,19 +1255,19 @@
         <v>8226</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4176</v>
+        <v>4090</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14491</v>
+        <v>14483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007700617619360414</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00390897185838558</v>
+        <v>0.003828945138835839</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01356563636414573</v>
+        <v>0.01355808729364742</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1276,19 +1276,19 @@
         <v>15704</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9766</v>
+        <v>9514</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24765</v>
+        <v>23887</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007448784839373826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004632298681842806</v>
+        <v>0.004512703893139535</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01174647446962838</v>
+        <v>0.01133000584314141</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>48043</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34264</v>
+        <v>35612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64619</v>
+        <v>66358</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04619121144962145</v>
+        <v>0.04619121144962146</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03294272554708987</v>
+        <v>0.03423920515516448</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0621277130279061</v>
+        <v>0.06379952722867815</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -1326,19 +1326,19 @@
         <v>23721</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16358</v>
+        <v>16004</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32118</v>
+        <v>33053</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0222061260076183</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01531379189752535</v>
+        <v>0.01498240209425552</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03006742700316686</v>
+        <v>0.03094256644498697</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -1347,19 +1347,19 @@
         <v>71764</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55912</v>
+        <v>57347</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>89772</v>
+        <v>91372</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03403878467745792</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02651988862201904</v>
+        <v>0.02720057039242455</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04258042872761502</v>
+        <v>0.04333912434567124</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>247273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>217005</v>
+        <v>219023</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>276429</v>
+        <v>278308</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2377406612568203</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2086395106463976</v>
+        <v>0.2105796858239894</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2657728281511414</v>
+        <v>0.2675791307032747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>369</v>
@@ -1397,19 +1397,19 @@
         <v>235704</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>213198</v>
+        <v>215969</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259551</v>
+        <v>263095</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2206542902046348</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1995860991930581</v>
+        <v>0.2021796908713464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2429794884759251</v>
+        <v>0.2462970520133709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>603</v>
@@ -1418,19 +1418,19 @@
         <v>482977</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>444969</v>
+        <v>448823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>523097</v>
+        <v>525970</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2290835783577086</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.211055930099187</v>
+        <v>0.2128837343296985</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2481134970397842</v>
+        <v>0.2494762026655985</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>732384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>698950</v>
+        <v>697963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>764779</v>
+        <v>762603</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7041505850765444</v>
+        <v>0.7041505850765445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6720052822222544</v>
+        <v>0.6710563917762399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7352966174571063</v>
+        <v>0.7332042959199718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1092</v>
@@ -1468,19 +1468,19 @@
         <v>797314</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>772160</v>
+        <v>769969</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821512</v>
+        <v>818292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7464066916182058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.722858927728085</v>
+        <v>0.7208075024463914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7690599954251047</v>
+        <v>0.7660455824186853</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1757</v>
@@ -1489,19 +1489,19 @@
         <v>1529698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1486212</v>
+        <v>1486372</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1571133</v>
+        <v>1567566</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7255603166226745</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7049343857030421</v>
+        <v>0.7050100996779475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7452133226690016</v>
+        <v>0.7435214565505038</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>5138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1767</v>
+        <v>1626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13452</v>
+        <v>12860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006467470549568372</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002223776837872117</v>
+        <v>0.002046574374138235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01693180757296107</v>
+        <v>0.01618679154681111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1614,19 +1614,19 @@
         <v>3562</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1196</v>
+        <v>1006</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9360</v>
+        <v>10056</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004399403089462055</v>
+        <v>0.004399403089462056</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001477331070970753</v>
+        <v>0.001242028719473662</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0115601015410684</v>
+        <v>0.0124204160429734</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1635,19 +1635,19 @@
         <v>8700</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4202</v>
+        <v>3376</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17219</v>
+        <v>18046</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00542363048067088</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002619691450818707</v>
+        <v>0.002104496299265167</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.010733878107542</v>
+        <v>0.01124951616023728</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>7627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3179</v>
+        <v>2963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17332</v>
+        <v>17151</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.009599858045352138</v>
+        <v>0.00959985804535214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004001576766947904</v>
+        <v>0.003729580891820856</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02181604204920843</v>
+        <v>0.02158842903745373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1688,16 +1688,16 @@
         <v>606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5304</v>
+        <v>5880</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002387501966076348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0007480356918331333</v>
+        <v>0.0007490062346827646</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.006550913581690632</v>
+        <v>0.007261780459569146</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1706,19 +1706,19 @@
         <v>9560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4065</v>
+        <v>4513</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18247</v>
+        <v>19991</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005959480537397221</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002534277706915477</v>
+        <v>0.002813396415006331</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01137507715429076</v>
+        <v>0.01246229245142199</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>35078</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23887</v>
+        <v>22577</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51536</v>
+        <v>51993</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0441531794213872</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03006635425383524</v>
+        <v>0.02841766093088057</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06486873513054724</v>
+        <v>0.0654446250601067</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -1756,19 +1756,19 @@
         <v>22816</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14612</v>
+        <v>14549</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35613</v>
+        <v>38308</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.02817885388851822</v>
+        <v>0.02817885388851823</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01804721389784799</v>
+        <v>0.01796885764989312</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04398498534871541</v>
+        <v>0.04731278091699723</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -1777,19 +1777,19 @@
         <v>57894</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41880</v>
+        <v>41891</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77460</v>
+        <v>76915</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03609026977918255</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02610769825966833</v>
+        <v>0.02611428474507245</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04828769713985803</v>
+        <v>0.04794772941001761</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>230913</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>204361</v>
+        <v>199933</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>268380</v>
+        <v>264401</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2906538295575564</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2572328255459002</v>
+        <v>0.2516590583978899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3378141389925103</v>
+        <v>0.332805588322972</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>230</v>
@@ -1827,19 +1827,19 @@
         <v>175363</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155672</v>
+        <v>154445</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>196867</v>
+        <v>196991</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2165849648906112</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1922644529584726</v>
+        <v>0.1907500177826606</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2431431286098989</v>
+        <v>0.2432970610753579</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>416</v>
@@ -1848,19 +1848,19 @@
         <v>406276</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>370573</v>
+        <v>370429</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>446433</v>
+        <v>445451</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2532681783210496</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2310111158780222</v>
+        <v>0.2309213546072396</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2783010808134172</v>
+        <v>0.2776893266346678</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>515705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>481148</v>
+        <v>481120</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>545281</v>
+        <v>546485</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6491256624261359</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6056277018813644</v>
+        <v>0.6055924921645708</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6863533815421416</v>
+        <v>0.6878695096988346</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>780</v>
@@ -1898,19 +1898,19 @@
         <v>606000</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>583081</v>
+        <v>585008</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>626581</v>
+        <v>627948</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7484492761653321</v>
+        <v>0.7484492761653322</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7201426436961856</v>
+        <v>0.7225230374366048</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7738680471362549</v>
+        <v>0.7755569365597662</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1227</v>
@@ -1919,19 +1919,19 @@
         <v>1121705</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1082221</v>
+        <v>1085220</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1161643</v>
+        <v>1161265</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6992584408816997</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6746444527362622</v>
+        <v>0.6765141146251776</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.724155458946723</v>
+        <v>0.7239198667181478</v>
       </c>
     </row>
     <row r="21">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5119</v>
+        <v>5202</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00149235548353701</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005211809025417217</v>
+        <v>0.005296531816686964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2044,19 +2044,19 @@
         <v>2959</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1028</v>
+        <v>1076</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6394</v>
+        <v>6573</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002653085176430717</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0009221973778232359</v>
+        <v>0.0009647403242150576</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005733060759252433</v>
+        <v>0.005893627886097202</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2065,19 +2065,19 @@
         <v>4425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2006</v>
+        <v>1912</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9346</v>
+        <v>8926</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002109533469342095</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0009564942929081561</v>
+        <v>0.0009116846460515203</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004455671449943567</v>
+        <v>0.004255712099477967</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>9142</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4199</v>
+        <v>4281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16943</v>
+        <v>18155</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009306982018513536</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004274839610224858</v>
+        <v>0.004358479081104344</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01724953454366233</v>
+        <v>0.01848317271711128</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2115,19 +2115,19 @@
         <v>4985</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1569</v>
+        <v>1767</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10951</v>
+        <v>11269</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004469559159770375</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001406696481394247</v>
+        <v>0.001584736128777074</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009818814374131794</v>
+        <v>0.01010393656489004</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2136,19 +2136,19 @@
         <v>14126</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8414</v>
+        <v>7871</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24023</v>
+        <v>23287</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006734849234520064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004011364864170656</v>
+        <v>0.003752806973439997</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01145306318495706</v>
+        <v>0.01110238776416596</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>48966</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34499</v>
+        <v>35198</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66554</v>
+        <v>67865</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0498516574670804</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03512334258098104</v>
+        <v>0.03583469197196718</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06775864765217068</v>
+        <v>0.06909334262166568</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -2186,19 +2186,19 @@
         <v>39025</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29445</v>
+        <v>28570</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51973</v>
+        <v>51895</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03499146134744852</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02640155514075512</v>
+        <v>0.02561720954101665</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04660096095297891</v>
+        <v>0.04653172025703766</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>93</v>
@@ -2207,19 +2207,19 @@
         <v>87991</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68229</v>
+        <v>71128</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108837</v>
+        <v>108418</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04195026064236524</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03252899878522023</v>
+        <v>0.03391096121579163</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05188911172506837</v>
+        <v>0.05168922414436571</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>162220</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137794</v>
+        <v>138372</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188678</v>
+        <v>188126</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1651555988133728</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1402877202115044</v>
+        <v>0.1408757072858409</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1920919660801631</v>
+        <v>0.1915302262609052</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>275</v>
@@ -2257,19 +2257,19 @@
         <v>191847</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>170000</v>
+        <v>170634</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>214009</v>
+        <v>215619</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.172018360695955</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1524289015102956</v>
+        <v>0.1529978711168826</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.191889308710377</v>
+        <v>0.1933333436057523</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>440</v>
@@ -2278,19 +2278,19 @@
         <v>354067</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>323815</v>
+        <v>318586</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>390706</v>
+        <v>386703</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1688046357783812</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1543815159779964</v>
+        <v>0.1518886001024356</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1862726741234813</v>
+        <v>0.1843641871747248</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>760432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>733016</v>
+        <v>727993</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>786378</v>
+        <v>785719</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7741934062174963</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7462811776011672</v>
+        <v>0.7411667480248926</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8006089687569722</v>
+        <v>0.7999377950230447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1220</v>
@@ -2328,19 +2328,19 @@
         <v>876455</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>853724</v>
+        <v>850521</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>902548</v>
+        <v>898749</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7858675336203954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7654858115050934</v>
+        <v>0.7626135138488878</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8092635351926097</v>
+        <v>0.8058571536345539</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2001</v>
@@ -2349,19 +2349,19 @@
         <v>1636887</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1600505</v>
+        <v>1602984</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1675107</v>
+        <v>1676356</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7804007208753914</v>
+        <v>0.7804007208753913</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7630550895740963</v>
+        <v>0.7642370818988051</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7986224490603049</v>
+        <v>0.7992176350918387</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>11521</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5939</v>
+        <v>6090</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20979</v>
+        <v>21367</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.003292949649553444</v>
+        <v>0.003292949649553445</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001697514206369765</v>
+        <v>0.001740801126165689</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005996157949209599</v>
+        <v>0.006107286874466621</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2474,19 +2474,19 @@
         <v>12092</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7129</v>
+        <v>6693</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20480</v>
+        <v>20637</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003249861468920855</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001915961449019074</v>
+        <v>0.00179887053892356</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005504159622722099</v>
+        <v>0.005546200895268315</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -2495,19 +2495,19 @@
         <v>23613</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15141</v>
+        <v>15323</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35790</v>
+        <v>34802</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.003270742524095454</v>
+        <v>0.003270742524095455</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002097179040487391</v>
+        <v>0.002122439414417694</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004957367717569714</v>
+        <v>0.00482058687221198</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>30570</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20554</v>
+        <v>21071</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43383</v>
+        <v>44823</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.008737558979721956</v>
+        <v>0.008737558979721958</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005874884261637697</v>
+        <v>0.00602257734062926</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01239989036488369</v>
+        <v>0.01281142177214141</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2545,19 +2545,19 @@
         <v>17314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11100</v>
+        <v>11236</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26030</v>
+        <v>26540</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.004653167683111644</v>
+        <v>0.004653167683111643</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002983113803898653</v>
+        <v>0.003019666208467621</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.006995717562892691</v>
+        <v>0.007132905134386712</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>56</v>
@@ -2566,19 +2566,19 @@
         <v>47884</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36354</v>
+        <v>35959</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>64290</v>
+        <v>63567</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.006632513266217268</v>
+        <v>0.006632513266217269</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005035540893612956</v>
+        <v>0.004980857745213257</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008905030230388127</v>
+        <v>0.008804832397755079</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>166341</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>141440</v>
+        <v>139542</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>196531</v>
+        <v>196884</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04754404263478559</v>
+        <v>0.0475440426347856</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04042682634380144</v>
+        <v>0.03988449496584346</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05617312291229686</v>
+        <v>0.05627403669242233</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>144</v>
@@ -2616,19 +2616,19 @@
         <v>106602</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>89583</v>
+        <v>87307</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>129425</v>
+        <v>128506</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02864980357631445</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02407600792122866</v>
+        <v>0.02346421842882247</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03478369306303113</v>
+        <v>0.03453674114720582</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>290</v>
@@ -2637,19 +2637,19 @@
         <v>272942</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>242189</v>
+        <v>241877</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>310524</v>
+        <v>315893</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.0378061810902818</v>
+        <v>0.03780618109028181</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03354639383203766</v>
+        <v>0.03350325395041909</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04301180782828258</v>
+        <v>0.0437554819018438</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>780317</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>732902</v>
+        <v>729727</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>844935</v>
+        <v>838482</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2230328908334913</v>
+        <v>0.2230328908334914</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2094806674049766</v>
+        <v>0.2085729710639797</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2415022743114302</v>
+        <v>0.2396577655306909</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1140</v>
@@ -2687,19 +2687,19 @@
         <v>741464</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>702627</v>
+        <v>699418</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>785528</v>
+        <v>786916</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1992727870783554</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1888351578162381</v>
+        <v>0.1879725143653298</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2111152459468211</v>
+        <v>0.2114882543490615</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1883</v>
@@ -2708,19 +2708,19 @@
         <v>1521781</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1452553</v>
+        <v>1453910</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1589843</v>
+        <v>1586460</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2107872216676392</v>
+        <v>0.2107872216676393</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2011982270823419</v>
+        <v>0.2013860906373498</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2202147336738184</v>
+        <v>0.219746153544795</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>2509916</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2443326</v>
+        <v>2444628</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2561549</v>
+        <v>2566489</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7173925579024476</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6983596068566011</v>
+        <v>0.6987317248686057</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7321507059327997</v>
+        <v>0.733562490790181</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4017</v>
@@ -2758,19 +2758,19 @@
         <v>2843378</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2792553</v>
+        <v>2798537</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2885369</v>
+        <v>2887114</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7641743801932976</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7505148919038486</v>
+        <v>0.7521230620892305</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7754596110904706</v>
+        <v>0.7759285814434238</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6436</v>
@@ -2779,19 +2779,19 @@
         <v>5353294</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5278258</v>
+        <v>5280129</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5430965</v>
+        <v>5430300</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7415033414517661</v>
+        <v>0.7415033414517663</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7311098270004485</v>
+        <v>0.7313690463933448</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7522618081878487</v>
+        <v>0.7521696921184544</v>
       </c>
     </row>
     <row r="33">
